--- a/medicine/Psychotrope/Crouchen/Crouchen.xlsx
+++ b/medicine/Psychotrope/Crouchen/Crouchen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le crouchen est un cépage de France de raisins blancs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le crouchen est un cépage des pyrénées. En France, il est très peu cultivé (vin des sables de Messanges, sur le littoral landais de Gascogne) mais en Australie il fut multiplié sous le nom de Clare riesling (actuellement près de 1 360 hectares) et selon Jancis Robinson, le crouchen porterait les noms Cape riesling, Paarl riesling et South African riesling en Afrique du Sud (110 hectares). Le crouchen occupe mondialement ainsi 1 500 hectares.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau épanoui, cotonneux blanc à liseré carminé.
 Jeune feuilles duveteuses du haut jaunâtres
@@ -575,7 +591,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque tardive: 20 jours après le chasselas.
 </t>
@@ -606,7 +624,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont petites à moyennes et les baies sont de taille moyenne. La grappe est cylindrique, compacte et ailée. Le cépage craint le mildiou, l’oïdium, la pourriture grise et le court-noué.
 </t>
@@ -637,7 +657,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le crouchen est connu sous les noms Cape Riesling (Afrique du Sud), Clare Riesling (en Australie), Cougnet, Crouchenta, Cruchen, Cruchen Blanc, Grand Blanc, Messanges Blanc, Navarre Blanc, Paarl Riesling (Afrique du Sud), Sable Blanc, South African Riesling (Afrique du Sud), Trouchet Blanc et Xuricérratia (dans le Pays basque).
 </t>
